--- a/medicine/Enfance/Astrapi/Astrapi.xlsx
+++ b/medicine/Enfance/Astrapi/Astrapi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Astrapi est un bimensuel français pour la jeunesse (7 à 11 ans) édité depuis 1978 par le groupe Bayard Presse.
@@ -515,9 +527,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du magazine vient d'une histoire parue dans Les Belles Histoires. Une fée disait une formule magique qui était « Astrapi, je te pi ! Astrapan, je te pan ! »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du magazine vient d'une histoire parue dans Les Belles Histoires. Une fée disait une formule magique qui était « Astrapi, je te pi ! Astrapan, je te pan ! ».
 En mai 1977, un numéro-test paraît sous le nom de Charabia, avant de devenir Astrapi en octobre 1978.
 </t>
         </is>
@@ -547,9 +561,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La diffusion totale payée est stable, autour de 75 000 exemplaires, depuis le début des années 2000, et en croissance continue depuis 2014[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diffusion totale payée est stable, autour de 75 000 exemplaires, depuis le début des années 2000, et en croissance continue depuis 2014 :
 2003 : 70 560 exemplaires
 2004 : 73 770 exemplaires
 2005 : 74 560 exemplaires
@@ -594,7 +610,9 @@
           <t>Équipe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Directeur de la publication : Pascal Ruffenach
 Directrice Presse Jeunesse / directrice des rédactions : Nathalie Becht
@@ -628,7 +646,9 @@
           <t>Rubriques du magazine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>"Salut les Astrapiens" : Courrier des lecteurs pour partager leurs expériences, des conseils et des confidences
 "Les infos" : les actualités à hauteur d'enfant
@@ -668,7 +688,9 @@
           <t>Bandes dessinées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les bandes dessinées suivantes ont notamment été publiées dans Astrapi :
 Adolphus Claar (Yves Chaland)
@@ -729,9 +751,11 @@
           <t>Podcast</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astrapi a sorti un podcast avec France Info "Salut l'info !" qui met l’actualité à la portée des 7 à 11 ans. Chaque semaine une journaliste discute avec un enfant des dernières actualités. Le podcast propose aussi un espace de parole pour les enfants avec des confidences, blagues et coups de cœur[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astrapi a sorti un podcast avec France Info "Salut l'info !" qui met l’actualité à la portée des 7 à 11 ans. Chaque semaine une journaliste discute avec un enfant des dernières actualités. Le podcast propose aussi un espace de parole pour les enfants avec des confidences, blagues et coups de cœur.
 </t>
         </is>
       </c>
